--- a/ip.xlsx
+++ b/ip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusaku/Downloads/chromedriver_mac_arm64/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arous\Desktop\blacklistalert_crawler-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F95AC9-067C-6543-8D84-120008990884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3645BEFD-ED48-401C-9D68-F3E55DE4482D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="13840" windowHeight="17500" xr2:uid="{68B9DFB4-8023-214D-B986-95C3A1FCDCBD}"/>
+    <workbookView xWindow="8325" yWindow="3225" windowWidth="28800" windowHeight="15345" xr2:uid="{68B9DFB4-8023-214D-B986-95C3A1FCDCBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,40 +39,40 @@
     <t>182.22.25.252</t>
   </si>
   <si>
+    <t>184.94.240.124</t>
+  </si>
+  <si>
+    <t>37.120.169.172</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>106.139.178.230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>193.202.80.218</t>
+  </si>
+  <si>
+    <t>103.172.216.59</t>
+  </si>
+  <si>
+    <t>197.247.197.170</t>
+  </si>
+  <si>
+    <t>144.255.49.246</t>
+  </si>
+  <si>
     <t xml:space="preserve">34.206.39.153
-12334.23.23.
+1231123123123
 </t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5.161.133.13</t>
-  </si>
-  <si>
-    <t>184.94.240.124</t>
-  </si>
-  <si>
-    <t>37.120.169.172</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>106.139.178.230</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>193.202.80.218</t>
-  </si>
-  <si>
-    <t>103.172.216.59</t>
-  </si>
-  <si>
-    <t>197.247.197.170</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -466,61 +464,62 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="63">
+    <row r="3" spans="1:1" ht="63" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>